--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,356 +512,486 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>001120</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>001121</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>23.95</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>005633</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>建信中证500指数增强C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>82.27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>001951</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>金鹰改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>16.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004560</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安丰益灵活配置混合A</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004561</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安丰益灵活配置混合C</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>95.94</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005587</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信比较优势灵活配置混合</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007243</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007244</t>
+          <t>000242</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合C</t>
+          <t>景顺长城策略精选</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>005587</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>安信比较优势灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010076</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合A</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010077</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合C</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000242</t>
+          <t>001402</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景顺长城策略精选</t>
+          <t>信诚新选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>信诚新选回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006593</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博道中证500指数增强A</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006594</t>
+          <t>009908</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博道中证500指数增强C</t>
+          <t>湘财长泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001402</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合A</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合B</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002046</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合B</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>002046</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>信诚新锐回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001951</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金鹰改革红利灵活配置混合</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>007243</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>安信核心竞争力灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>010077</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>湘财长弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>004560</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>汇安丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>7</v>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>004561</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
+          <t>汇安丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>7</v>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>007244</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>安信核心竞争力灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,1958 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160621</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006057</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4676,4 +4677,2264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6394</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4960</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6937,4 +6938,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6946,7 +6947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6957,17 +6958,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6977,14 +6998,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.36</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6993,14 +7036,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.41</v>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7009,14 +7074,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.5</v>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7025,13 +7112,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7345,7 +7346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7356,17 +7357,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7376,14 +7397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7392,14 +7435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.36</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7408,14 +7473,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.41</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7424,14 +7511,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.5</v>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7440,13 +7549,1830 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4431</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9255,7 +9256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9266,17 +9267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9286,14 +9307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.61</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9302,14 +9345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -9318,14 +9383,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>16.36</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -9334,14 +9505,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>8.41</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="6">
@@ -9350,14 +9521,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="7">
@@ -9366,13 +9537,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.89</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>17.61</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>16.36</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>8.41</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>5.5</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2678,7 +3093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3076,7 +3491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5336,7 +5751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7290,7 +7705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9018,7 +9433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000807-云铝股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>4.81</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.89</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>17.61</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>16.36</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>8.41</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>5.5</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,580 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1184,1886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7497</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6218</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011798</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011799</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +3461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3093,7 +5540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3491,7 +5938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5751,7 +8198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7705,7 +10152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9431,554 +11878,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6521</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2708</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1746</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>